--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.9248588092249</v>
+        <v>293.1683114229673</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.3771471320205</v>
+        <v>401.1258173619921</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.1741351952247</v>
+        <v>362.8429323365834</v>
       </c>
       <c r="AD2" t="n">
-        <v>261924.8588092249</v>
+        <v>293168.3114229674</v>
       </c>
       <c r="AE2" t="n">
-        <v>358377.1471320204</v>
+        <v>401125.8173619921</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.424636935689119e-06</v>
+        <v>5.789518657257292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324174.1351952247</v>
+        <v>362842.9323365834</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.427718552822</v>
+        <v>135.0860947613912</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.5650527185626</v>
+        <v>184.8307544303489</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.6227038275775</v>
+        <v>167.1907666391614</v>
       </c>
       <c r="AD3" t="n">
-        <v>114427.718552822</v>
+        <v>135086.0947613912</v>
       </c>
       <c r="AE3" t="n">
-        <v>156565.0527185626</v>
+        <v>184830.7544303489</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.843108974873536e-06</v>
+        <v>9.878065634893558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.468055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>141622.7038275775</v>
+        <v>167190.7666391614</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.57572589500681</v>
+        <v>99.31935344959656</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.5107746858776</v>
+        <v>135.8931210503132</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.25009724220477</v>
+        <v>122.9236723045009</v>
       </c>
       <c r="AD4" t="n">
-        <v>78575.72589500681</v>
+        <v>99319.35344959656</v>
       </c>
       <c r="AE4" t="n">
-        <v>107510.7746858776</v>
+        <v>135893.1210503132</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.037902436142711e-06</v>
+        <v>1.189792326228172e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.879166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>97250.09724220478</v>
+        <v>122923.6723045009</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.30346129819451</v>
+        <v>99.04708885278424</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.1382502530529</v>
+        <v>135.5205966174885</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.91312601840744</v>
+        <v>122.5867010807036</v>
       </c>
       <c r="AD5" t="n">
-        <v>78303.46129819451</v>
+        <v>99047.08885278425</v>
       </c>
       <c r="AE5" t="n">
-        <v>107138.2502530529</v>
+        <v>135520.5966174885</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.068684050346348e-06</v>
+        <v>1.194996110835973e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>96913.12601840743</v>
+        <v>122586.7010807036</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3142975679551</v>
+        <v>184.5807741102467</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.822070967572</v>
+        <v>252.5515582665646</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.36536805425</v>
+        <v>228.4483920040154</v>
       </c>
       <c r="AD2" t="n">
-        <v>164314.2975679551</v>
+        <v>184580.7741102467</v>
       </c>
       <c r="AE2" t="n">
-        <v>224822.070967572</v>
+        <v>252551.5582665646</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550853863201283e-06</v>
+        <v>7.881127796661682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.605555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>203365.36805425</v>
+        <v>228448.3920040154</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.66641190608944</v>
+        <v>96.76220673923783</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.8983670532539</v>
+        <v>132.3943201078512</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.88701412750068</v>
+        <v>119.7587920133884</v>
       </c>
       <c r="AD3" t="n">
-        <v>76666.41190608943</v>
+        <v>96762.20673923782</v>
       </c>
       <c r="AE3" t="n">
-        <v>104898.3670532539</v>
+        <v>132394.3201078512</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.029186549040828e-06</v>
+        <v>1.217308205555003e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.981944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>94887.01412750068</v>
+        <v>119758.7920133884</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.90812708006864</v>
+        <v>95.00392191321701</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.4926041842415</v>
+        <v>129.9885572388388</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.71085389019669</v>
+        <v>117.5826317760845</v>
       </c>
       <c r="AD4" t="n">
-        <v>74908.12708006863</v>
+        <v>95003.92191321701</v>
       </c>
       <c r="AE4" t="n">
-        <v>102492.6041842415</v>
+        <v>129988.5572388388</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.152786260994462e-06</v>
+        <v>1.238713092523884e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.930555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>92710.85389019668</v>
+        <v>117582.6317760845</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.01922458195111</v>
+        <v>96.07936360678939</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.74934503825</v>
+        <v>131.4600240091228</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.56133737147327</v>
+        <v>118.9136638230296</v>
       </c>
       <c r="AD2" t="n">
-        <v>78019.2245819511</v>
+        <v>96079.36360678938</v>
       </c>
       <c r="AE2" t="n">
-        <v>106749.34503825</v>
+        <v>131460.0240091228</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.981510638271559e-06</v>
+        <v>1.321052047692604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>96561.33737147327</v>
+        <v>118913.6638230296</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.34808388851351</v>
+        <v>93.84480417603687</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.4087695510513</v>
+        <v>128.4026012141643</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3943185623542</v>
+        <v>116.1480371685011</v>
       </c>
       <c r="AD2" t="n">
-        <v>84348.08388851352</v>
+        <v>93844.80417603688</v>
       </c>
       <c r="AE2" t="n">
-        <v>115408.7695510513</v>
+        <v>128402.6012141643</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.852336035891639e-06</v>
+        <v>1.248346810282298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.265277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>104394.3185623542</v>
+        <v>116148.0371685011</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.49346807782291</v>
+        <v>88.99018836534627</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.7664700283336</v>
+        <v>121.7603016914465</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.38595078355662</v>
+        <v>110.1396693897035</v>
       </c>
       <c r="AD3" t="n">
-        <v>79493.46807782291</v>
+        <v>88990.18836534627</v>
       </c>
       <c r="AE3" t="n">
-        <v>108766.4700283336</v>
+        <v>121760.3016914465</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.199350937413024e-06</v>
+        <v>1.311565389051002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.108333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98385.95078355662</v>
+        <v>110139.6693897035</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.1250321893738</v>
+        <v>96.73033212350821</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2623597915136</v>
+        <v>132.3507078524012</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.92995212021538</v>
+        <v>119.7193420503884</v>
       </c>
       <c r="AD2" t="n">
-        <v>79125.0321893738</v>
+        <v>96730.33212350821</v>
       </c>
       <c r="AE2" t="n">
-        <v>108262.3597915136</v>
+        <v>132350.7078524012</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.564240010096694e-06</v>
+        <v>1.286379541858837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>97929.95212021537</v>
+        <v>119719.3420503884</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.0782099042558</v>
+        <v>211.519988519732</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.7591953977031</v>
+        <v>289.4109798958654</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.1134055212329</v>
+        <v>261.7900021655506</v>
       </c>
       <c r="AD2" t="n">
-        <v>181078.2099042558</v>
+        <v>211519.988519732</v>
       </c>
       <c r="AE2" t="n">
-        <v>247759.1953977031</v>
+        <v>289410.9798958654</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.256170995767773e-06</v>
+        <v>7.322662213228287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.880555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>224113.405521233</v>
+        <v>261790.0021655506</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.3285779674884</v>
+        <v>102.5043739660554</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.3280336244499</v>
+        <v>140.2510066341182</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2714633978745</v>
+        <v>126.8656474045198</v>
       </c>
       <c r="AD3" t="n">
-        <v>92328.5779674884</v>
+        <v>102504.3739660554</v>
       </c>
       <c r="AE3" t="n">
-        <v>126328.0336244499</v>
+        <v>140251.0066341182</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.750378729846737e-06</v>
+        <v>1.16138997467868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>114271.4633978745</v>
+        <v>126865.6474045198</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.57813641539367</v>
+        <v>95.84420854085396</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.4093405155585</v>
+        <v>131.1382744736008</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.54009819270061</v>
+        <v>118.6226216115994</v>
       </c>
       <c r="AD4" t="n">
-        <v>75578.13641539367</v>
+        <v>95844.20854085396</v>
       </c>
       <c r="AE4" t="n">
-        <v>103409.3405155585</v>
+        <v>131138.2744736008</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.138187127907945e-06</v>
+        <v>1.228111680768008e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.909722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>93540.09819270061</v>
+        <v>118622.6216115994</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.68410201984742</v>
+        <v>106.3658467594677</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3955479148731</v>
+        <v>145.5344440662188</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.85955176303047</v>
+        <v>131.6448409834534</v>
       </c>
       <c r="AD2" t="n">
-        <v>80684.10201984741</v>
+        <v>106365.8467594677</v>
       </c>
       <c r="AE2" t="n">
-        <v>110395.5479148731</v>
+        <v>145534.4440662187</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219962164675445e-06</v>
+        <v>1.246891169551416e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.997222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>99859.55176303047</v>
+        <v>131644.8409834534</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.3223597938211</v>
+        <v>133.9508632824507</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.4208962163972</v>
+        <v>183.2774806379851</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4923054196538</v>
+        <v>165.7857351175069</v>
       </c>
       <c r="AD2" t="n">
-        <v>114322.3597938211</v>
+        <v>133950.8632824507</v>
       </c>
       <c r="AE2" t="n">
-        <v>156420.8962163972</v>
+        <v>183277.4806379851</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.558287649270596e-06</v>
+        <v>9.844140445982038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.884722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>141492.3054196538</v>
+        <v>165785.7351175069</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.05139342464588</v>
+        <v>91.59455605870389</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.58389516669995</v>
+        <v>125.3237124660902</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.17518657538048</v>
+        <v>113.3629932412948</v>
       </c>
       <c r="AD3" t="n">
-        <v>72051.39342464588</v>
+        <v>91594.55605870389</v>
       </c>
       <c r="AE3" t="n">
-        <v>98583.89516669995</v>
+        <v>125323.7124660902</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.212386287280515e-06</v>
+        <v>1.277367204483948e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>89175.18657538047</v>
+        <v>113362.9932412948</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7056332078241</v>
+        <v>169.6247652494546</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8338519012651</v>
+        <v>232.0880871306954</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.2847965619834</v>
+        <v>209.9379258326849</v>
       </c>
       <c r="AD2" t="n">
-        <v>149705.6332078241</v>
+        <v>169624.7652494546</v>
       </c>
       <c r="AE2" t="n">
-        <v>204833.8519012651</v>
+        <v>232088.0871306954</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.858404988600832e-06</v>
+        <v>8.472634068061796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.355555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>185284.7965619834</v>
+        <v>209937.9258326849</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.89299741109463</v>
+        <v>93.81203994417402</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1036589867917</v>
+        <v>128.3577717466736</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.4544676729942</v>
+        <v>116.1074861624692</v>
       </c>
       <c r="AD3" t="n">
-        <v>73892.99741109462</v>
+        <v>93812.03994417402</v>
       </c>
       <c r="AE3" t="n">
-        <v>101103.6589867917</v>
+        <v>128357.7717466736</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.17654516754565e-06</v>
+        <v>1.251526812198554e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.948611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>91454.4676729942</v>
+        <v>116107.4861624692</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.73666170349708</v>
+        <v>93.65570423657648</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.8897535746122</v>
+        <v>128.1438663344941</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.26097709313493</v>
+        <v>115.9139955826099</v>
       </c>
       <c r="AD4" t="n">
-        <v>73736.66170349708</v>
+        <v>93655.70423657648</v>
       </c>
       <c r="AE4" t="n">
-        <v>100889.7535746122</v>
+        <v>128143.8663344941</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.200159240083533e-06</v>
+        <v>1.255644900252959e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.938888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>91260.97709313492</v>
+        <v>115913.9955826099</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.0340121945843</v>
+        <v>265.0462881661352</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.2156603364074</v>
+        <v>362.6480244858896</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.6547271394977</v>
+        <v>328.0374060086545</v>
       </c>
       <c r="AD2" t="n">
-        <v>234034.0121945843</v>
+        <v>265046.2881661353</v>
       </c>
       <c r="AE2" t="n">
-        <v>320215.6603364074</v>
+        <v>362648.0244858895</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.695382403567324e-06</v>
+        <v>6.281905169500593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.526388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>289654.7271394976</v>
+        <v>328037.4060086545</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4656521400807</v>
+        <v>127.9699105871869</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0392463079617</v>
+        <v>175.0940772993188</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.0060270112482</v>
+        <v>158.3833443080016</v>
       </c>
       <c r="AD3" t="n">
-        <v>107465.6521400807</v>
+        <v>127969.9105871869</v>
       </c>
       <c r="AE3" t="n">
-        <v>147039.2463079618</v>
+        <v>175094.0772993188</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.089366706395657e-06</v>
+        <v>1.035151981969835e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>133006.0270112482</v>
+        <v>158383.3443080016</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.87953553370197</v>
+        <v>97.46904532682879</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.1899722029041</v>
+        <v>133.3614478469103</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.15078889093874</v>
+        <v>120.6336184384044</v>
       </c>
       <c r="AD4" t="n">
-        <v>76879.53553370197</v>
+        <v>97469.0453268288</v>
       </c>
       <c r="AE4" t="n">
-        <v>105189.9722029041</v>
+        <v>133361.4478469103</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.117985883194441e-06</v>
+        <v>1.210010424710212e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.869444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>95150.78889093874</v>
+        <v>120633.6184384044</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.11972943393292</v>
+        <v>97.70923922705974</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.5186160938069</v>
+        <v>133.6900917378132</v>
       </c>
       <c r="AC5" t="n">
-        <v>95.4480674701485</v>
+        <v>120.9308970176142</v>
       </c>
       <c r="AD5" t="n">
-        <v>77119.72943393292</v>
+        <v>97709.23922705973</v>
       </c>
       <c r="AE5" t="n">
-        <v>105518.6160938069</v>
+        <v>133690.0917378132</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.117544731295885e-06</v>
+        <v>1.209935431811252e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.869444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>95448.0674701485</v>
+        <v>120930.8970176142</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.79403584466883</v>
+        <v>110.8397363663844</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.5966495096744</v>
+        <v>151.6558172004786</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.6098815565089</v>
+        <v>137.1819988571826</v>
       </c>
       <c r="AD2" t="n">
-        <v>91794.03584466883</v>
+        <v>110839.7363663844</v>
       </c>
       <c r="AE2" t="n">
-        <v>125596.6495096744</v>
+        <v>151655.8172004786</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470675793528031e-06</v>
+        <v>1.166815967607855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.415277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>113609.8815565089</v>
+        <v>137181.9988571826</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.4135439057533</v>
+        <v>90.02177977545821</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.0253583669881</v>
+        <v>123.171770569362</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.52469258603125</v>
+        <v>111.4164296589202</v>
       </c>
       <c r="AD3" t="n">
-        <v>80413.54390575331</v>
+        <v>90021.77977545821</v>
       </c>
       <c r="AE3" t="n">
-        <v>110025.3583669881</v>
+        <v>123171.770569362</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204222680580146e-06</v>
+        <v>1.299091829992666e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>99524.69258603125</v>
+        <v>111416.4296589202</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.73081059112984</v>
+        <v>87.982620599157</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.722968408967</v>
+        <v>120.3817030229944</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.4420394941783</v>
+        <v>108.8926422432926</v>
       </c>
       <c r="AD2" t="n">
-        <v>78730.81059112983</v>
+        <v>87982.620599157</v>
       </c>
       <c r="AE2" t="n">
-        <v>107722.968408967</v>
+        <v>120381.7030229944</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.047038028106976e-06</v>
+        <v>1.31475204259183e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97442.0394941783</v>
+        <v>108892.6422432926</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.80231560185618</v>
+        <v>88.05412560988336</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.8208047192212</v>
+        <v>120.4795393332486</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.53053844429597</v>
+        <v>108.9811411934103</v>
       </c>
       <c r="AD3" t="n">
-        <v>78802.31560185619</v>
+        <v>88054.12560988335</v>
       </c>
       <c r="AE3" t="n">
-        <v>107820.8047192212</v>
+        <v>120479.5393332486</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066095273803208e-06</v>
+        <v>1.318307515487728e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.256944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>97530.53844429598</v>
+        <v>108981.1411934103</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.27377648748006</v>
+        <v>96.03682957987303</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.097634185432</v>
+        <v>131.4018270770271</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.87638629127525</v>
+        <v>118.8610211244531</v>
       </c>
       <c r="AD2" t="n">
-        <v>78273.77648748006</v>
+        <v>96036.82957987303</v>
       </c>
       <c r="AE2" t="n">
-        <v>107097.634185432</v>
+        <v>131401.8270770271</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.807961488714199e-06</v>
+        <v>1.309196240657087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.497222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96876.38629127525</v>
+        <v>118861.0211244531</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.03017263470753</v>
+        <v>109.9196469894842</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.2879864003108</v>
+        <v>150.3969103235259</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1397996281097</v>
+        <v>136.0432402856789</v>
       </c>
       <c r="AD2" t="n">
-        <v>93030.17263470753</v>
+        <v>109919.6469894842</v>
       </c>
       <c r="AE2" t="n">
-        <v>127287.9864003108</v>
+        <v>150396.9103235259</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.645948508761471e-06</v>
+        <v>1.16453295626204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.526388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>115139.7996281097</v>
+        <v>136043.2402856789</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.8120932826735</v>
+        <v>156.5472938770274</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.1923417528467</v>
+        <v>214.1949138616307</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.3269673821095</v>
+        <v>193.7524519071877</v>
       </c>
       <c r="AD2" t="n">
-        <v>136812.0932826734</v>
+        <v>156547.2938770274</v>
       </c>
       <c r="AE2" t="n">
-        <v>187192.3417528467</v>
+        <v>214194.9138616307</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180947843152996e-06</v>
+        <v>9.102720983551241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>169326.9673821095</v>
+        <v>193752.4519071877</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.59507000117435</v>
+        <v>92.33018108697725</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.32777744402358</v>
+        <v>126.3302270832591</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.84807377220193</v>
+        <v>114.2734475160535</v>
       </c>
       <c r="AD3" t="n">
-        <v>72595.07000117435</v>
+        <v>92330.18108697725</v>
       </c>
       <c r="AE3" t="n">
-        <v>99327.77744402358</v>
+        <v>126330.2270832591</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.22218374607443e-06</v>
+        <v>1.26890919427681e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.959722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>89848.07377220193</v>
+        <v>114273.4475160535</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.85919087027361</v>
+        <v>92.59430195607649</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.6891592693154</v>
+        <v>126.6916089085509</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.17496582329056</v>
+        <v>114.6003395671422</v>
       </c>
       <c r="AD4" t="n">
-        <v>72859.19087027361</v>
+        <v>92594.3019560765</v>
       </c>
       <c r="AE4" t="n">
-        <v>99689.15926931539</v>
+        <v>126691.6089085509</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.22141439740003e-06</v>
+        <v>1.268774022749627e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.959722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>90174.96582329056</v>
+        <v>114600.3395671422</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.4464904909367</v>
+        <v>231.9623935443186</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.3104166503635</v>
+        <v>317.3811803057505</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.699036535058</v>
+        <v>287.0907659047481</v>
       </c>
       <c r="AD2" t="n">
-        <v>211446.4904909367</v>
+        <v>231962.3935443186</v>
       </c>
       <c r="AE2" t="n">
-        <v>289310.4166503635</v>
+        <v>317381.1803057506</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965137235538186e-06</v>
+        <v>6.779942788378198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.193055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>261699.036535058</v>
+        <v>287090.7659047481</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.60908976847269</v>
+        <v>109.8670860494392</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2895510640636</v>
+        <v>150.3249941265313</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.2822675941321</v>
+        <v>135.9781876695905</v>
       </c>
       <c r="AD3" t="n">
-        <v>99609.08976847268</v>
+        <v>109867.0860494392</v>
       </c>
       <c r="AE3" t="n">
-        <v>136289.5510640636</v>
+        <v>150324.9941265313</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.411802762559936e-06</v>
+        <v>1.096346817731802e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>123282.2675941321</v>
+        <v>135978.1876695905</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.33438028824148</v>
+        <v>96.76485297850068</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.4440667455134</v>
+        <v>132.3979408091545</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.47607160351627</v>
+        <v>119.7620671600411</v>
       </c>
       <c r="AD4" t="n">
-        <v>76334.38028824147</v>
+        <v>96764.85297850068</v>
       </c>
       <c r="AE4" t="n">
-        <v>104444.0667455134</v>
+        <v>132397.9408091545</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121441039775019e-06</v>
+        <v>1.217687054756624e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.891666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>94476.07160351628</v>
+        <v>119762.0671600411</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0411022250774</v>
+        <v>134.4548876253188</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5630907350913</v>
+        <v>183.9671089798816</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1935606720003</v>
+        <v>166.4095462983525</v>
       </c>
       <c r="AD2" t="n">
-        <v>110041.1022250774</v>
+        <v>134454.8876253188</v>
       </c>
       <c r="AE2" t="n">
-        <v>150563.0907350913</v>
+        <v>183967.1089798816</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.675818216576974e-06</v>
+        <v>1.002243207539434e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>136193.5606720003</v>
+        <v>166409.5462983525</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.80473643237637</v>
+        <v>89.1830699160067</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.1923611232241</v>
+        <v>122.0242107383934</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.7711954300928</v>
+        <v>110.3783913276085</v>
       </c>
       <c r="AD2" t="n">
-        <v>79804.73643237638</v>
+        <v>89183.0699160067</v>
       </c>
       <c r="AE2" t="n">
-        <v>109192.3611232241</v>
+        <v>122024.2107383934</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.076594434873754e-06</v>
+        <v>1.30381478245475e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.205555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>98771.1954300928</v>
+        <v>110378.3913276085</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.86349518209923</v>
+        <v>88.24182866572956</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.9045133199622</v>
+        <v>120.7363629351316</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.60625801366812</v>
+        <v>109.2134539111838</v>
       </c>
       <c r="AD3" t="n">
-        <v>78863.49518209923</v>
+        <v>88241.82866572955</v>
       </c>
       <c r="AE3" t="n">
-        <v>107904.5133199623</v>
+        <v>120736.3629351316</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.163796498522596e-06</v>
+        <v>1.319881174374234e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97606.25801366812</v>
+        <v>109213.4539111838</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2041594019852</v>
+        <v>122.6316878837897</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.2084839399115</v>
+        <v>167.7900854907699</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.7317444200764</v>
+        <v>151.7764352264414</v>
       </c>
       <c r="AD2" t="n">
-        <v>103204.1594019852</v>
+        <v>122631.6878837897</v>
       </c>
       <c r="AE2" t="n">
-        <v>141208.4839399115</v>
+        <v>167790.0854907699</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.960310726964804e-06</v>
+        <v>1.064766014049408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.663888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>127731.7444200764</v>
+        <v>151776.4352264414</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.92613969979405</v>
+        <v>90.63999344924734</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.7267145465247</v>
+        <v>124.0176377915023</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1591123161527</v>
+        <v>112.1815685005617</v>
       </c>
       <c r="AD3" t="n">
-        <v>80926.13969979405</v>
+        <v>90639.99344924734</v>
       </c>
       <c r="AE3" t="n">
-        <v>110726.7145465247</v>
+        <v>124017.6377915023</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.227210854579745e-06</v>
+        <v>1.29108847622852e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100159.1123161527</v>
+        <v>112181.5685005617</v>
       </c>
     </row>
   </sheetData>
